--- a/CookieChecker/Chrome-CookiesDef.xlsx
+++ b/CookieChecker/Chrome-CookiesDef.xlsx
@@ -1,37 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KyriakiBousiou\Desktop\CookieChecker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e82331\Desktop\Git\browsertesting\CookieChecker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{859BF053-582D-4C3B-8C5D-D4D53FA515BE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5475" yWindow="3540" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Domain</t>
   </si>
@@ -58,6 +51,9 @@
   </si>
   <si>
     <t>https://www.nbg.gr/el/retail/housing-loans/Calculator/</t>
+  </si>
+  <si>
+    <t>NBGPublicSite</t>
   </si>
   <si>
     <t>https://www.nbg.gr/el/iban</t>
@@ -153,7 +149,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -219,7 +215,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -231,7 +227,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -248,9 +244,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -278,31 +274,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -330,23 +309,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -561,12 +523,15 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -574,7 +539,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -582,7 +547,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -590,7 +555,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -598,7 +563,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -606,7 +571,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -614,7 +579,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -622,7 +587,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -630,51 +595,48 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -682,7 +644,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -690,7 +652,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -698,7 +660,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -706,7 +668,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -714,7 +676,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -722,7 +684,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -730,7 +692,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -738,7 +700,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -746,18 +708,18 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -765,7 +727,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -773,7 +735,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -781,7 +743,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -789,13 +751,13 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/CookieChecker/Chrome-CookiesDef.xlsx
+++ b/CookieChecker/Chrome-CookiesDef.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10755" windowHeight="4935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Domain</t>
   </si>
@@ -620,7 +620,10 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
